--- a/task/training_session_monitoring.xlsx
+++ b/task/training_session_monitoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad0791/Desktop/Hanwash.mwater.dev/task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F25613-1295-EA46-B6D7-43EF71007A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296EC62F-3653-C441-A7B5-747D7891A2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="540" windowWidth="25040" windowHeight="14860" xr2:uid="{31B2DF59-D489-1B42-A6C4-E1B1C858A295}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="mayors" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">project_teams!$A$1:$I$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">project_teams!$A$1:$J$15</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -394,7 +394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -403,13 +403,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -734,7 +732,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -775,10 +773,10 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1113,6 +1111,7 @@
       <c r="J15" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J15" xr:uid="{C36F2941-11D6-6F43-B65B-628189CF42E4}"/>
   <hyperlinks>
     <hyperlink ref="D11" r:id="rId1" tooltip="mailto:sherry@adobie.com" display="mailto:sherry@adobie.com" xr:uid="{144FBB44-0356-9949-BBFD-A787022D955C}"/>
     <hyperlink ref="D14" r:id="rId2" xr:uid="{68DDC5C1-22AC-3741-9393-4CB8B6CA38A6}"/>
@@ -1144,160 +1143,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="34">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11" t="s">
         <v>85</v>
       </c>
     </row>

--- a/task/training_session_monitoring.xlsx
+++ b/task/training_session_monitoring.xlsx
@@ -8,18 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad0791/Desktop/Hanwash.mwater.dev/task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296EC62F-3653-C441-A7B5-747D7891A2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C8BEB7-AA17-E247-9FB0-795E66169D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="540" windowWidth="25040" windowHeight="14860" xr2:uid="{31B2DF59-D489-1B42-A6C4-E1B1C858A295}"/>
   </bookViews>
   <sheets>
-    <sheet name="project_teams" sheetId="1" r:id="rId1"/>
-    <sheet name="mayors" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="project_teams" sheetId="1" r:id="rId2"/>
+    <sheet name="mayors" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">project_teams!$A$1:$J$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">project_teams!$A$1:$J$15</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="97">
   <si>
     <t>zone</t>
   </si>
@@ -297,13 +301,47 @@
   </si>
   <si>
     <t>(YES)</t>
+  </si>
+  <si>
+    <t>Count of zone</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>haitian group</t>
+  </si>
+  <si>
+    <t>volunteers group</t>
+  </si>
+  <si>
+    <t>trained</t>
+  </si>
+  <si>
+    <t>not trained</t>
+  </si>
+  <si>
+    <t>status/group</t>
+  </si>
+  <si>
+    <t>Training session / Project teams 
+for the month of December 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -339,8 +377,29 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,6 +421,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC8C1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,7 +471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -414,6 +491,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -421,6 +515,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFC8C1"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -430,6 +529,300 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45645.545760879628" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="14" xr:uid="{747E659F-9059-ED43-9196-548F0CF5A3DC}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:J15" sheet="project_teams"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="zone" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="nom et prenom" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="#tel" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="email" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="has_mwater_acc" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="uname" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="upass" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="english" numFmtId="0">
+      <sharedItems count="2">
+        <s v="no"/>
+        <s v="yes"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="CPE's training" numFmtId="0">
+      <sharedItems containsBlank="1" count="2">
+        <s v="YES"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="CAP training" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="14">
+  <r>
+    <s v="Cavaillon"/>
+    <s v="Emmanuel Charles"/>
+    <s v="+509 48 13 7815"/>
+    <s v="emmanuelcharle23@gmail.com"/>
+    <s v="YES"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Cavaillon"/>
+    <s v="Sandra Hemstead"/>
+    <m/>
+    <s v="sandrahemstead@gmail.com"/>
+    <s v="YES"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Leogane"/>
+    <s v="Bob Chagrasulis"/>
+    <m/>
+    <s v="bobchagrasulis@aol.com"/>
+    <s v="YES"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Leogane"/>
+    <s v="Dan Balfe"/>
+    <m/>
+    <s v="danbalferotary@gmail.com"/>
+    <s v="YES"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Leogane"/>
+    <s v="Jean Marc BRISSAU"/>
+    <m/>
+    <s v="jmbrissau@gmail.com"/>
+    <s v="YES"/>
+    <s v="jean.marie.brissau"/>
+    <s v="Hanwash1234"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Terre Neuve"/>
+    <s v="Covington Cynde"/>
+    <m/>
+    <s v="cyndecovington@gmail.com"/>
+    <s v="YES"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Terre Neuve"/>
+    <s v="Ron Denham"/>
+    <m/>
+    <s v="ron.denham1021@gmail.com"/>
+    <s v="YES"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Terre Neuve"/>
+    <s v="Tom Schmidt"/>
+    <m/>
+    <s v="tomschmidt1516@gmail.com"/>
+    <s v="YES"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Terre Neuve"/>
+    <s v="Jill Duerig"/>
+    <m/>
+    <s v="jillduerig@hotmail.com"/>
+    <s v="YES"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Ferrier"/>
+    <s v="Sherry Chamberlain"/>
+    <m/>
+    <s v="sherry@adobie.com"/>
+    <s v="YES"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Ferrier"/>
+    <s v="Magarette Georges"/>
+    <s v="+509 37 30 3326"/>
+    <s v="magarettegeorges@gmail.com"/>
+    <s v="YES"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Pignon"/>
+    <s v="Moussanto Dantil"/>
+    <s v="509 3628 4962"/>
+    <s v="dantilplus@gmail.com"/>
+    <s v="YES"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Pignon"/>
+    <s v="Jan Pooley"/>
+    <m/>
+    <s v="jpooley5@cox.net"/>
+    <s v="YES"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Pignon"/>
+    <s v="Christine Isham"/>
+    <m/>
+    <s v="crisdanish@gmail.com"/>
+    <s v="YES"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4CD7A304-F613-CF4C-87B0-D565A918A685}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="7"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of zone" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -728,11 +1121,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4341B1E5-7FE3-0641-8785-6D62AB3B48B1}">
+  <dimension ref="A3:K18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11">
+      <c r="A3" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="15">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15">
+        <v>6</v>
+      </c>
+      <c r="D5" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="15">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15">
+        <v>4</v>
+      </c>
+      <c r="D6" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="15">
+        <v>4</v>
+      </c>
+      <c r="C7" s="15">
+        <v>10</v>
+      </c>
+      <c r="D7" s="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="H13" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="1:11" ht="37" customHeight="1">
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="1:11" ht="21">
+      <c r="H15" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="21">
+      <c r="H16" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" s="18">
+        <v>3</v>
+      </c>
+      <c r="J16" s="18">
+        <v>6</v>
+      </c>
+      <c r="K16" s="22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="8:11" ht="21">
+      <c r="H17" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="18">
+        <v>1</v>
+      </c>
+      <c r="J17" s="18">
+        <v>4</v>
+      </c>
+      <c r="K17" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="8:11" ht="21">
+      <c r="H18" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="18">
+        <v>4</v>
+      </c>
+      <c r="J18" s="18">
+        <v>10</v>
+      </c>
+      <c r="K18" s="24">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H13:K14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36F2941-11D6-6F43-B65B-628189CF42E4}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -801,7 +1355,9 @@
       <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10">
@@ -1037,7 +1593,9 @@
       <c r="H12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10">
@@ -1061,7 +1619,9 @@
       <c r="H13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10">
@@ -1123,7 +1683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E715955F-24F3-D846-AC9C-70C2FEE042AD}">
   <dimension ref="A1:H7"/>
   <sheetViews>

--- a/task/training_session_monitoring.xlsx
+++ b/task/training_session_monitoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad0791/Desktop/Hanwash.mwater.dev/task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C8BEB7-AA17-E247-9FB0-795E66169D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A852FC8-532F-D748-B200-88ADE5DC6B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="540" windowWidth="25040" windowHeight="14860" xr2:uid="{31B2DF59-D489-1B42-A6C4-E1B1C858A295}"/>
+    <workbookView xWindow="480" yWindow="540" windowWidth="25040" windowHeight="14860" activeTab="2" xr2:uid="{31B2DF59-D489-1B42-A6C4-E1B1C858A295}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="98">
   <si>
     <t>zone</t>
   </si>
@@ -335,6 +335,9 @@
   <si>
     <t>Training session / Project teams 
 for the month of December 2024</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -471,7 +474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -491,23 +494,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -756,7 +758,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4CD7A304-F613-CF4C-87B0-D565A918A685}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4CD7A304-F613-CF4C-87B0-D565A918A685}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField dataField="1" showAll="0"/>
@@ -1124,7 +1126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4341B1E5-7FE3-0641-8785-6D62AB3B48B1}">
   <dimension ref="A3:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -1140,15 +1142,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>87</v>
       </c>
       <c r="B4" t="s">
@@ -1162,114 +1164,114 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="15">
+      <c r="A5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5">
         <v>6</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7">
         <v>10</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
     </row>
     <row r="14" spans="1:11" ht="37" customHeight="1">
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
     </row>
     <row r="15" spans="1:11" ht="21">
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="J15" s="21" t="s">
+      <c r="J15" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="K15" s="21" t="s">
+      <c r="K15" s="18" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="21">
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="17">
         <v>3</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="17">
         <v>6</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="19">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="8:11" ht="21">
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="17">
         <v>1</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="17">
         <v>4</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="20">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="8:11" ht="21">
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="17">
         <v>4</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="17">
         <v>10</v>
       </c>
-      <c r="K18" s="24">
+      <c r="K18" s="21">
         <v>14</v>
       </c>
     </row>
@@ -1283,10 +1285,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36F2941-11D6-6F43-B65B-628189CF42E4}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B2" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1299,7 +1302,7 @@
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1432,7 +1435,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" hidden="1">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1455,10 +1458,12 @@
       <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" hidden="1">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -1477,7 +1482,9 @@
       <c r="H7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10">
@@ -1504,7 +1511,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" hidden="1">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -1523,7 +1530,9 @@
       <c r="H9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10">
@@ -1550,7 +1559,7 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" hidden="1">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -1569,7 +1578,9 @@
       <c r="H11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10">
@@ -1648,7 +1659,7 @@
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" hidden="1">
       <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
@@ -1667,11 +1678,19 @@
       <c r="H15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="J15" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J15" xr:uid="{C36F2941-11D6-6F43-B65B-628189CF42E4}"/>
+  <autoFilter ref="A1:J15" xr:uid="{C36F2941-11D6-6F43-B65B-628189CF42E4}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="YES"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="D11" r:id="rId1" tooltip="mailto:sherry@adobie.com" display="mailto:sherry@adobie.com" xr:uid="{144FBB44-0356-9949-BBFD-A787022D955C}"/>
     <hyperlink ref="D14" r:id="rId2" xr:uid="{68DDC5C1-22AC-3741-9393-4CB8B6CA38A6}"/>
@@ -1687,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E715955F-24F3-D846-AC9C-70C2FEE042AD}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/task/training_session_monitoring.xlsx
+++ b/task/training_session_monitoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad0791/Desktop/Hanwash.mwater.dev/task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A852FC8-532F-D748-B200-88ADE5DC6B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E05B905-FC52-E149-9E6B-D529C314D73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="540" windowWidth="25040" windowHeight="14860" activeTab="2" xr2:uid="{31B2DF59-D489-1B42-A6C4-E1B1C858A295}"/>
+    <workbookView xWindow="480" yWindow="540" windowWidth="25040" windowHeight="14860" activeTab="1" xr2:uid="{31B2DF59-D489-1B42-A6C4-E1B1C858A295}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -1285,10 +1285,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36F2941-11D6-6F43-B65B-628189CF42E4}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
@@ -1435,7 +1434,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" hidden="1">
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1463,7 +1462,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" hidden="1">
+    <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -1511,7 +1510,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" hidden="1">
+    <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -1559,7 +1558,7 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" hidden="1">
+    <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -1659,7 +1658,7 @@
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" hidden="1">
+    <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
@@ -1684,13 +1683,7 @@
       <c r="J15" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J15" xr:uid="{C36F2941-11D6-6F43-B65B-628189CF42E4}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="YES"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J15" xr:uid="{C36F2941-11D6-6F43-B65B-628189CF42E4}"/>
   <hyperlinks>
     <hyperlink ref="D11" r:id="rId1" tooltip="mailto:sherry@adobie.com" display="mailto:sherry@adobie.com" xr:uid="{144FBB44-0356-9949-BBFD-A787022D955C}"/>
     <hyperlink ref="D14" r:id="rId2" xr:uid="{68DDC5C1-22AC-3741-9393-4CB8B6CA38A6}"/>
@@ -1706,7 +1699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E715955F-24F3-D846-AC9C-70C2FEE042AD}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
